--- a/InputData/indst/IFSR/Industrial Fuel Shifting Ratio.xlsx
+++ b/InputData/indst/IFSR/Industrial Fuel Shifting Ratio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\indst\IFSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A789A36B-610F-4F64-BA37-96262CAFB538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CA6448-A89E-416D-9058-33AFD07A5C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61260" yWindow="1725" windowWidth="24900" windowHeight="14490" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>Source:</t>
   </si>
@@ -541,6 +541,12 @@
   </si>
   <si>
     <t>A smaller share of iron is produced globally by the direct reduced iron (DRI) process.</t>
+  </si>
+  <si>
+    <t>green hydrogen if</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen if</t>
   </si>
 </sst>
 </file>
@@ -549,7 +555,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -638,7 +644,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2167,10 +2173,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2266,6 +2272,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2276,10 +2298,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2375,6 +2397,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
